--- a/biology/Botanique/Aulacocalyx_camerooniana/Aulacocalyx_camerooniana.xlsx
+++ b/biology/Botanique/Aulacocalyx_camerooniana/Aulacocalyx_camerooniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aulacocalyx camerooniana Sonké &amp; S. E. Dawson est une espèce de plante à fleurs dicotylédones, de la famille des Rubiaceae et du genre Aulacocalyx, qui fut étudiée par Bonaventure Sonké et Sally Emma Dawson[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aulacocalyx camerooniana Sonké &amp; S. E. Dawson est une espèce de plante à fleurs dicotylédones, de la famille des Rubiaceae et du genre Aulacocalyx, qui fut étudiée par Bonaventure Sonké et Sally Emma Dawson.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un arbuste de 2 à 3 m de haut environ[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un arbuste de 2 à 3 m de haut environ.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante native du Cameroun[3], elle se trouve dans les forêts tropicales à 620-800 m d'altitude. Elle fut décrite comme une nouvelle espèce d'Engon (Efoulan), dans le sud du Cameroun[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante native du Cameroun, elle se trouve dans les forêts tropicales à 620-800 m d'altitude. Elle fut décrite comme une nouvelle espèce d'Engon (Efoulan), dans le sud du Cameroun.
 </t>
         </is>
       </c>
